--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.8598525</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N2">
-        <v>3.719705</v>
+        <v>5.007457</v>
       </c>
       <c r="O2">
-        <v>0.2596064746988193</v>
+        <v>0.03058822613850173</v>
       </c>
       <c r="P2">
-        <v>0.1894665655147375</v>
+        <v>0.03069143126555566</v>
       </c>
       <c r="Q2">
-        <v>362.8186094223212</v>
+        <v>302.9418137655759</v>
       </c>
       <c r="R2">
-        <v>1451.274437689285</v>
+        <v>1817.650882593455</v>
       </c>
       <c r="S2">
-        <v>0.06855182908934909</v>
+        <v>0.006850191852373278</v>
       </c>
       <c r="T2">
-        <v>0.03755807595158598</v>
+        <v>0.005077434124593808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.669152333333334</v>
+        <v>4.955833666666666</v>
       </c>
       <c r="N3">
-        <v>5.007457</v>
+        <v>14.867501</v>
       </c>
       <c r="O3">
-        <v>0.2329876982136891</v>
+        <v>0.09081864960645702</v>
       </c>
       <c r="P3">
-        <v>0.2550593877075549</v>
+        <v>0.09112507307243575</v>
       </c>
       <c r="Q3">
-        <v>325.6169661271649</v>
+        <v>899.4560950002192</v>
       </c>
       <c r="R3">
-        <v>1953.701796762989</v>
+        <v>5396.736570001315</v>
       </c>
       <c r="S3">
-        <v>0.06152286026916377</v>
+        <v>0.02033871368547978</v>
       </c>
       <c r="T3">
-        <v>0.05056058217796865</v>
+        <v>0.01507526813007731</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H4">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I4">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J4">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>1.614337</v>
+        <v>0.5504869999999999</v>
       </c>
       <c r="N4">
-        <v>4.843011</v>
+        <v>1.100974</v>
       </c>
       <c r="O4">
-        <v>0.225336330459468</v>
+        <v>0.01008800725136855</v>
       </c>
       <c r="P4">
-        <v>0.2466831807683927</v>
+        <v>0.006748029557950047</v>
       </c>
       <c r="Q4">
-        <v>314.9236326423745</v>
+        <v>99.9103119014525</v>
       </c>
       <c r="R4">
-        <v>1889.541795854247</v>
+        <v>399.64124760581</v>
       </c>
       <c r="S4">
-        <v>0.05950243587414191</v>
+        <v>0.002259195573064776</v>
       </c>
       <c r="T4">
-        <v>0.04890016143010437</v>
+        <v>0.001116359652791935</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H5">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I5">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J5">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2172696666666667</v>
+        <v>46.02683833333333</v>
       </c>
       <c r="N5">
-        <v>0.651809</v>
+        <v>138.080515</v>
       </c>
       <c r="O5">
-        <v>0.03032746533519238</v>
+        <v>0.8434696529876901</v>
       </c>
       <c r="P5">
-        <v>0.03320048568410545</v>
+        <v>0.8463155320624873</v>
       </c>
       <c r="Q5">
-        <v>42.38480112248216</v>
+        <v>8353.613752406622</v>
       </c>
       <c r="R5">
-        <v>254.308806734893</v>
+        <v>50121.68251443973</v>
       </c>
       <c r="S5">
-        <v>0.008008287246237632</v>
+        <v>0.1888938874212012</v>
       </c>
       <c r="T5">
-        <v>0.006581353071796635</v>
+        <v>0.1400101326486652</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H6">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I6">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J6">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.803510666666667</v>
+        <v>1.366146666666667</v>
       </c>
       <c r="N6">
-        <v>5.410532000000001</v>
+        <v>4.09844</v>
       </c>
       <c r="O6">
-        <v>0.2517420312928313</v>
+        <v>0.02503546401598276</v>
       </c>
       <c r="P6">
-        <v>0.2755903803252095</v>
+        <v>0.02511993404157118</v>
       </c>
       <c r="Q6">
-        <v>351.8274874799607</v>
+        <v>247.9479798247667</v>
       </c>
       <c r="R6">
-        <v>2110.964924879764</v>
+        <v>1487.6878789486</v>
       </c>
       <c r="S6">
-        <v>0.06647513982004022</v>
+        <v>0.005606658288916057</v>
       </c>
       <c r="T6">
-        <v>0.0546304537038519</v>
+        <v>0.004155713990874059</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>187.223767</v>
       </c>
       <c r="I7">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J7">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.8598525</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N7">
-        <v>3.719705</v>
+        <v>5.007457</v>
       </c>
       <c r="O7">
-        <v>0.2596064746988193</v>
+        <v>0.03058822613850173</v>
       </c>
       <c r="P7">
-        <v>0.1894665655147375</v>
+        <v>0.03069143126555566</v>
       </c>
       <c r="Q7">
-        <v>116.0695303714559</v>
+        <v>104.1683291811688</v>
       </c>
       <c r="R7">
-        <v>696.4171822287351</v>
+        <v>937.5149626305191</v>
       </c>
       <c r="S7">
-        <v>0.02193045891767739</v>
+        <v>0.002355478865602756</v>
       </c>
       <c r="T7">
-        <v>0.01802284167960815</v>
+        <v>0.002618858499815759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J8">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.669152333333334</v>
+        <v>4.955833666666666</v>
       </c>
       <c r="N8">
-        <v>5.007457</v>
+        <v>14.867501</v>
       </c>
       <c r="O8">
-        <v>0.2329876982136891</v>
+        <v>0.09081864960645702</v>
       </c>
       <c r="P8">
-        <v>0.2550593877075549</v>
+        <v>0.09112507307243575</v>
       </c>
       <c r="Q8">
-        <v>104.1683291811688</v>
+        <v>309.2832825662519</v>
       </c>
       <c r="R8">
-        <v>937.5149626305191</v>
+        <v>2783.549543096267</v>
       </c>
       <c r="S8">
-        <v>0.01968181706533826</v>
+        <v>0.006993586642846425</v>
       </c>
       <c r="T8">
-        <v>0.02426230164178224</v>
+        <v>0.007775579773299958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J9">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>1.614337</v>
+        <v>0.5504869999999999</v>
       </c>
       <c r="N9">
-        <v>4.843011</v>
+        <v>1.100974</v>
       </c>
       <c r="O9">
-        <v>0.225336330459468</v>
+        <v>0.01008800725136855</v>
       </c>
       <c r="P9">
-        <v>0.2466831807683927</v>
+        <v>0.006748029557950047</v>
       </c>
       <c r="Q9">
-        <v>100.7474181158263</v>
+        <v>34.35474994150967</v>
       </c>
       <c r="R9">
-        <v>906.726763042437</v>
+        <v>206.128499649058</v>
       </c>
       <c r="S9">
-        <v>0.01903546182172326</v>
+        <v>0.0007768377207966423</v>
       </c>
       <c r="T9">
-        <v>0.0234655222673843</v>
+        <v>0.0005758002750649991</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J10">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2172696666666667</v>
+        <v>46.02683833333333</v>
       </c>
       <c r="N10">
-        <v>0.651809</v>
+        <v>138.080515</v>
       </c>
       <c r="O10">
-        <v>0.03032746533519238</v>
+        <v>0.8434696529876901</v>
       </c>
       <c r="P10">
-        <v>0.03320048568410545</v>
+        <v>0.8463155320624873</v>
       </c>
       <c r="Q10">
-        <v>13.55934848272256</v>
+        <v>2872.439351955556</v>
       </c>
       <c r="R10">
-        <v>122.034136344503</v>
+        <v>25851.9541676</v>
       </c>
       <c r="S10">
-        <v>0.002561936228217449</v>
+        <v>0.06495227714068125</v>
       </c>
       <c r="T10">
-        <v>0.003158167223568457</v>
+        <v>0.07221496467502114</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J11">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.803510666666667</v>
+        <v>1.366146666666667</v>
       </c>
       <c r="N11">
-        <v>5.410532000000001</v>
+        <v>4.09844</v>
       </c>
       <c r="O11">
-        <v>0.2517420312928313</v>
+        <v>0.02503546401598276</v>
       </c>
       <c r="P11">
-        <v>0.2755903803252095</v>
+        <v>0.02511993404157118</v>
       </c>
       <c r="Q11">
-        <v>112.5533536126716</v>
+        <v>85.25837506927556</v>
       </c>
       <c r="R11">
-        <v>1012.980182514044</v>
+        <v>767.32537562348</v>
       </c>
       <c r="S11">
-        <v>0.02126610394261173</v>
+        <v>0.001927882516403228</v>
       </c>
       <c r="T11">
-        <v>0.026215294395242</v>
+        <v>0.002143450144451545</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H12">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I12">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J12">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.8598525</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N12">
-        <v>3.719705</v>
+        <v>5.007457</v>
       </c>
       <c r="O12">
-        <v>0.2596064746988193</v>
+        <v>0.03058822613850173</v>
       </c>
       <c r="P12">
-        <v>0.1894665655147375</v>
+        <v>0.03069143126555566</v>
       </c>
       <c r="Q12">
-        <v>265.7024549185783</v>
+        <v>287.0909158851572</v>
       </c>
       <c r="R12">
-        <v>1594.21472951147</v>
+        <v>2583.818242966415</v>
       </c>
       <c r="S12">
-        <v>0.05020246703221691</v>
+        <v>0.006491767605275887</v>
       </c>
       <c r="T12">
-        <v>0.04125728142050288</v>
+        <v>0.007217649464052767</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H13">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I13">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J13">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.669152333333334</v>
+        <v>4.955833666666666</v>
       </c>
       <c r="N13">
-        <v>5.007457</v>
+        <v>14.867501</v>
       </c>
       <c r="O13">
-        <v>0.2329876982136891</v>
+        <v>0.09081864960645702</v>
       </c>
       <c r="P13">
-        <v>0.2550593877075549</v>
+        <v>0.09112507307243575</v>
       </c>
       <c r="Q13">
-        <v>238.4586264769598</v>
+        <v>852.393635934066</v>
       </c>
       <c r="R13">
-        <v>2146.127638292638</v>
+        <v>7671.542723406595</v>
       </c>
       <c r="S13">
-        <v>0.04505495193081956</v>
+        <v>0.01927452624420076</v>
       </c>
       <c r="T13">
-        <v>0.05554044276362428</v>
+        <v>0.02142972183774198</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H14">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I14">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J14">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>1.614337</v>
+        <v>0.5504869999999999</v>
       </c>
       <c r="N14">
-        <v>4.843011</v>
+        <v>1.100974</v>
       </c>
       <c r="O14">
-        <v>0.225336330459468</v>
+        <v>0.01008800725136855</v>
       </c>
       <c r="P14">
-        <v>0.2466831807683927</v>
+        <v>0.006748029557950047</v>
       </c>
       <c r="Q14">
-        <v>230.6275922235193</v>
+        <v>94.68268045808833</v>
       </c>
       <c r="R14">
-        <v>2075.648330011674</v>
+        <v>568.09608274853</v>
       </c>
       <c r="S14">
-        <v>0.04357533730303233</v>
+        <v>0.002140987136020642</v>
       </c>
       <c r="T14">
-        <v>0.05371648228813602</v>
+        <v>0.001586922144520867</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H15">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I15">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J15">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2172696666666667</v>
+        <v>46.02683833333333</v>
       </c>
       <c r="N15">
-        <v>0.651809</v>
+        <v>138.080515</v>
       </c>
       <c r="O15">
-        <v>0.03032746533519238</v>
+        <v>0.8434696529876901</v>
       </c>
       <c r="P15">
-        <v>0.03320048568410545</v>
+        <v>0.8463155320624873</v>
       </c>
       <c r="Q15">
-        <v>31.03960330868955</v>
+        <v>7916.525597173213</v>
       </c>
       <c r="R15">
-        <v>279.3564297782059</v>
+        <v>71248.73037455892</v>
       </c>
       <c r="S15">
-        <v>0.005864698021985124</v>
+        <v>0.1790103468081325</v>
       </c>
       <c r="T15">
-        <v>0.007229569910897921</v>
+        <v>0.1990265228609811</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H16">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I16">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J16">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.803510666666667</v>
+        <v>1.366146666666667</v>
       </c>
       <c r="N16">
-        <v>5.410532000000001</v>
+        <v>4.09844</v>
       </c>
       <c r="O16">
-        <v>0.2517420312928313</v>
+        <v>0.02503546401598276</v>
       </c>
       <c r="P16">
-        <v>0.2755903803252095</v>
+        <v>0.02511993404157118</v>
       </c>
       <c r="Q16">
-        <v>257.6533416521876</v>
+        <v>234.9745376346444</v>
       </c>
       <c r="R16">
-        <v>2318.880074869688</v>
+        <v>2114.7708387118</v>
       </c>
       <c r="S16">
-        <v>0.04868164802616598</v>
+        <v>0.005313299749586845</v>
       </c>
       <c r="T16">
-        <v>0.06001116791751934</v>
+        <v>0.005907410342106266</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H17">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I17">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J17">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.8598525</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N17">
-        <v>3.719705</v>
+        <v>5.007457</v>
       </c>
       <c r="O17">
-        <v>0.2596064746988193</v>
+        <v>0.03058822613850173</v>
       </c>
       <c r="P17">
-        <v>0.1894665655147375</v>
+        <v>0.03069143126555566</v>
       </c>
       <c r="Q17">
-        <v>98.60401294561127</v>
+        <v>92.87630194201452</v>
       </c>
       <c r="R17">
-        <v>394.4160517824451</v>
+        <v>557.2578116520871</v>
       </c>
       <c r="S17">
-        <v>0.01863048164407537</v>
+        <v>0.002100140878320851</v>
       </c>
       <c r="T17">
-        <v>0.01020724105976521</v>
+        <v>0.001556646469448348</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H18">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I18">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J18">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.669152333333334</v>
+        <v>4.955833666666666</v>
       </c>
       <c r="N18">
-        <v>5.007457</v>
+        <v>14.867501</v>
       </c>
       <c r="O18">
-        <v>0.2329876982136891</v>
+        <v>0.09081864960645702</v>
       </c>
       <c r="P18">
-        <v>0.2550593877075549</v>
+        <v>0.09112507307243575</v>
       </c>
       <c r="Q18">
-        <v>88.49364037427551</v>
+        <v>275.7564392463485</v>
       </c>
       <c r="R18">
-        <v>530.9618422456531</v>
+        <v>1654.538635478091</v>
       </c>
       <c r="S18">
-        <v>0.01672020329963384</v>
+        <v>0.006235469742141795</v>
       </c>
       <c r="T18">
-        <v>0.01374096082764863</v>
+        <v>0.004621795642213159</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H19">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I19">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J19">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>1.614337</v>
+        <v>0.5504869999999999</v>
       </c>
       <c r="N19">
-        <v>4.843011</v>
+        <v>1.100974</v>
       </c>
       <c r="O19">
-        <v>0.225336330459468</v>
+        <v>0.01008800725136855</v>
       </c>
       <c r="P19">
-        <v>0.2466831807683927</v>
+        <v>0.006748029557950047</v>
       </c>
       <c r="Q19">
-        <v>85.5874895705865</v>
+        <v>30.6306355664085</v>
       </c>
       <c r="R19">
-        <v>513.5249374235191</v>
+        <v>122.522542265634</v>
       </c>
       <c r="S19">
-        <v>0.01617110810983758</v>
+        <v>0.0006926271668538801</v>
       </c>
       <c r="T19">
-        <v>0.01328970462230058</v>
+        <v>0.0003422550188757338</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H20">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I20">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J20">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2172696666666667</v>
+        <v>46.02683833333333</v>
       </c>
       <c r="N20">
-        <v>0.651809</v>
+        <v>138.080515</v>
       </c>
       <c r="O20">
-        <v>0.03032746533519238</v>
+        <v>0.8434696529876901</v>
       </c>
       <c r="P20">
-        <v>0.03320048568410545</v>
+        <v>0.8463155320624873</v>
       </c>
       <c r="Q20">
-        <v>11.5190107950435</v>
+        <v>2561.061952893227</v>
       </c>
       <c r="R20">
-        <v>69.11406477026101</v>
+        <v>15366.37171735936</v>
       </c>
       <c r="S20">
-        <v>0.002176429870996602</v>
+        <v>0.05791133784096307</v>
       </c>
       <c r="T20">
-        <v>0.001788628826190384</v>
+        <v>0.04292449164802806</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H21">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I21">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J21">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.803510666666667</v>
+        <v>1.366146666666667</v>
       </c>
       <c r="N21">
-        <v>5.410532000000001</v>
+        <v>4.09844</v>
       </c>
       <c r="O21">
-        <v>0.2517420312928313</v>
+        <v>0.02503546401598276</v>
       </c>
       <c r="P21">
-        <v>0.2755903803252095</v>
+        <v>0.02511993404157118</v>
       </c>
       <c r="Q21">
-        <v>95.61693151663802</v>
+        <v>76.01621959634001</v>
       </c>
       <c r="R21">
-        <v>573.7015890998281</v>
+        <v>456.0973175780401</v>
       </c>
       <c r="S21">
-        <v>0.01806609522541571</v>
+        <v>0.001718896713710234</v>
       </c>
       <c r="T21">
-        <v>0.01484703878011122</v>
+        <v>0.00127406429176444</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H22">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I22">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J22">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.8598525</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N22">
-        <v>3.719705</v>
+        <v>5.007457</v>
       </c>
       <c r="O22">
-        <v>0.2596064746988193</v>
+        <v>0.03058822613850173</v>
       </c>
       <c r="P22">
-        <v>0.1894665655147375</v>
+        <v>0.03069143126555566</v>
       </c>
       <c r="Q22">
-        <v>267.416723124485</v>
+        <v>339.4827455886231</v>
       </c>
       <c r="R22">
-        <v>1604.50033874691</v>
+        <v>3055.344710297607</v>
       </c>
       <c r="S22">
-        <v>0.05052636502976374</v>
+        <v>0.00767646403428496</v>
       </c>
       <c r="T22">
-        <v>0.04152346656291334</v>
+        <v>0.008534813611911874</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H23">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I23">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J23">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.669152333333334</v>
+        <v>4.955833666666666</v>
       </c>
       <c r="N23">
-        <v>5.007457</v>
+        <v>14.867501</v>
       </c>
       <c r="O23">
-        <v>0.2329876982136891</v>
+        <v>0.09081864960645702</v>
       </c>
       <c r="P23">
-        <v>0.2550593877075549</v>
+        <v>0.09112507307243575</v>
       </c>
       <c r="Q23">
-        <v>239.9971220167127</v>
+        <v>1007.948757127939</v>
       </c>
       <c r="R23">
-        <v>2159.974098150414</v>
+        <v>9071.53881415145</v>
       </c>
       <c r="S23">
-        <v>0.04534563901399809</v>
+        <v>0.02279197538914376</v>
       </c>
       <c r="T23">
-        <v>0.05589878049596039</v>
+        <v>0.0253404771942951</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H24">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I24">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J24">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M24">
-        <v>1.614337</v>
+        <v>0.5504869999999999</v>
       </c>
       <c r="N24">
-        <v>4.843011</v>
+        <v>1.100974</v>
       </c>
       <c r="O24">
-        <v>0.225336330459468</v>
+        <v>0.01008800725136855</v>
       </c>
       <c r="P24">
-        <v>0.2466831807683927</v>
+        <v>0.006748029557950047</v>
       </c>
       <c r="Q24">
-        <v>232.115563228058</v>
+        <v>111.961523486379</v>
       </c>
       <c r="R24">
-        <v>2089.040069052522</v>
+        <v>671.7691409182739</v>
       </c>
       <c r="S24">
-        <v>0.04385647815783977</v>
+        <v>0.002531700416104276</v>
       </c>
       <c r="T24">
-        <v>0.054063052129758</v>
+        <v>0.001876522930014389</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H25">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I25">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J25">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2172696666666667</v>
+        <v>46.02683833333333</v>
       </c>
       <c r="N25">
-        <v>0.651809</v>
+        <v>138.080515</v>
       </c>
       <c r="O25">
-        <v>0.03032746533519238</v>
+        <v>0.8434696529876901</v>
       </c>
       <c r="P25">
-        <v>0.03320048568410545</v>
+        <v>0.8463155320624873</v>
       </c>
       <c r="Q25">
-        <v>31.23986568523533</v>
+        <v>9361.229131771084</v>
       </c>
       <c r="R25">
-        <v>281.158791167118</v>
+        <v>84251.06218593977</v>
       </c>
       <c r="S25">
-        <v>0.005902536081702764</v>
+        <v>0.2116783243936083</v>
       </c>
       <c r="T25">
-        <v>0.007276213897851033</v>
+        <v>0.2353472948368406</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H26">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I26">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J26">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.803510666666667</v>
+        <v>1.366146666666667</v>
       </c>
       <c r="N26">
-        <v>5.410532000000001</v>
+        <v>4.09844</v>
       </c>
       <c r="O26">
-        <v>0.2517420312928313</v>
+        <v>0.02503546401598276</v>
       </c>
       <c r="P26">
-        <v>0.2755903803252095</v>
+        <v>0.02511993404157118</v>
       </c>
       <c r="Q26">
-        <v>259.3156783132293</v>
+        <v>277.85553901516</v>
       </c>
       <c r="R26">
-        <v>2333.841104819064</v>
+        <v>2500.69985113644</v>
       </c>
       <c r="S26">
-        <v>0.04899573395152172</v>
+        <v>0.006282935081953743</v>
       </c>
       <c r="T26">
-        <v>0.0603983500276427</v>
+        <v>0.00698546617566643</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,46 +2093,46 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H27">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I27">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J27">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.8598525</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N27">
-        <v>3.719705</v>
+        <v>5.007457</v>
       </c>
       <c r="O27">
-        <v>0.2596064746988193</v>
+        <v>0.03058822613850173</v>
       </c>
       <c r="P27">
-        <v>0.1894665655147375</v>
+        <v>0.03069143126555566</v>
       </c>
       <c r="Q27">
-        <v>263.3864370158542</v>
+        <v>226.1688253182439</v>
       </c>
       <c r="R27">
-        <v>1580.318622095125</v>
+        <v>2035.519427864195</v>
       </c>
       <c r="S27">
-        <v>0.04976487298573674</v>
+        <v>0.005114182902643995</v>
       </c>
       <c r="T27">
-        <v>0.04089765884036189</v>
+        <v>0.005686029095733096</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H28">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I28">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J28">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.669152333333334</v>
+        <v>4.955833666666666</v>
       </c>
       <c r="N28">
-        <v>5.007457</v>
+        <v>14.867501</v>
       </c>
       <c r="O28">
-        <v>0.2329876982136891</v>
+        <v>0.09081864960645702</v>
       </c>
       <c r="P28">
-        <v>0.2550593877075549</v>
+        <v>0.09112507307243575</v>
       </c>
       <c r="Q28">
-        <v>236.3800817072139</v>
+        <v>671.5115549844594</v>
       </c>
       <c r="R28">
-        <v>2127.420735364925</v>
+        <v>6043.603994860135</v>
       </c>
       <c r="S28">
-        <v>0.04466222663473552</v>
+        <v>0.01518437790264449</v>
       </c>
       <c r="T28">
-        <v>0.05505631980057075</v>
+        <v>0.01688223049480822</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H29">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I29">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J29">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>1.614337</v>
+        <v>0.5504869999999999</v>
       </c>
       <c r="N29">
-        <v>4.843011</v>
+        <v>1.100974</v>
       </c>
       <c r="O29">
-        <v>0.225336330459468</v>
+        <v>0.01008800725136855</v>
       </c>
       <c r="P29">
-        <v>0.2466831807683927</v>
+        <v>0.006748029557950047</v>
       </c>
       <c r="Q29">
-        <v>228.6173073256416</v>
+        <v>74.59055453274833</v>
       </c>
       <c r="R29">
-        <v>2057.555765930775</v>
+        <v>447.5433271964899</v>
       </c>
       <c r="S29">
-        <v>0.04319550919289313</v>
+        <v>0.001686659238528329</v>
       </c>
       <c r="T29">
-        <v>0.05324825803070939</v>
+        <v>0.001250169536682122</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H30">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I30">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J30">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.2172696666666667</v>
+        <v>46.02683833333333</v>
       </c>
       <c r="N30">
-        <v>0.651809</v>
+        <v>138.080515</v>
       </c>
       <c r="O30">
-        <v>0.03032746533519238</v>
+        <v>0.8434696529876901</v>
       </c>
       <c r="P30">
-        <v>0.03320048568410545</v>
+        <v>0.8463155320624873</v>
       </c>
       <c r="Q30">
-        <v>30.76904398330278</v>
+        <v>6236.60030967578</v>
       </c>
       <c r="R30">
-        <v>276.921395849725</v>
+        <v>56129.40278708202</v>
       </c>
       <c r="S30">
-        <v>0.005813577886052805</v>
+        <v>0.1410234793831036</v>
       </c>
       <c r="T30">
-        <v>0.007166552753801024</v>
+        <v>0.156792125392951</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H31">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I31">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J31">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.803510666666667</v>
+        <v>1.366146666666667</v>
       </c>
       <c r="N31">
-        <v>5.410532000000001</v>
+        <v>4.09844</v>
       </c>
       <c r="O31">
-        <v>0.2517420312928313</v>
+        <v>0.02503546401598276</v>
       </c>
       <c r="P31">
-        <v>0.2755903803252095</v>
+        <v>0.02511993404157118</v>
       </c>
       <c r="Q31">
-        <v>255.4074845254778</v>
+        <v>185.1117963543778</v>
       </c>
       <c r="R31">
-        <v>2298.667360729301</v>
+        <v>1666.0061671894</v>
       </c>
       <c r="S31">
-        <v>0.04825731032707597</v>
+        <v>0.004185791665412653</v>
       </c>
       <c r="T31">
-        <v>0.05948807550084238</v>
+        <v>0.004653829096708438</v>
       </c>
     </row>
   </sheetData>
